--- a/src/test/java/seatech/uiTest/ibv/testcase/PVCB.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/PVCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\PVCB_Auto\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1306E9-7CFD-416B-95D9-4B1AE2AC076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B934F8EF-1062-48AB-A6DC-2FD090368A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="387">
   <si>
     <t>action</t>
   </si>
@@ -1730,11 +1730,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5119,7 +5119,7 @@
       <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="106" t="s">
         <v>386</v>
       </c>
       <c r="D12" s="10"/>
@@ -6624,7 +6624,7 @@
       <c r="C2" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="107" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="107"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -6646,7 +6646,7 @@
       <c r="C4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="107"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -6654,7 +6654,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="106"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -8529,8 +8529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD997270-C839-4C0F-9AC8-6CA83091C48E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8549,7 +8549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -8557,11 +8557,11 @@
       <c r="C2" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="107" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -8569,9 +8569,9 @@
       <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="106"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="107"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -8579,17 +8579,17 @@
       <c r="C4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="106"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="107"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="106"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="107"/>
+    </row>
+    <row r="6" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -8601,7 +8601,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>183</v>
       </c>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>53</v>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>184</v>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>185</v>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>186</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>187</v>
@@ -8661,7 +8661,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>290</v>
@@ -8669,7 +8669,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>188</v>
@@ -8677,7 +8677,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>189</v>
@@ -8685,7 +8685,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>50</v>
@@ -8695,14 +8695,12 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>125</v>
-      </c>
+      <c r="C17" s="54"/>
       <c r="D17" s="6"/>
     </row>
   </sheetData>
@@ -12472,7 +12470,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
         <v>50</v>
@@ -12482,7 +12480,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="60" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>63</v>
       </c>
@@ -12494,7 +12492,7 @@
       </c>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
@@ -12504,7 +12502,7 @@
       </c>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="11" t="s">
         <v>55</v>
@@ -12514,7 +12512,7 @@
       </c>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="13" t="s">
         <v>59</v>
@@ -12524,7 +12522,7 @@
       </c>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="11" t="s">
         <v>61</v>
@@ -12532,7 +12530,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="11" t="s">
         <v>62</v>
@@ -12540,7 +12538,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="8" t="s">
         <v>336</v>
@@ -12548,7 +12546,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="8" t="s">
         <v>337</v>
@@ -12556,7 +12554,7 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>69</v>
       </c>
@@ -12568,7 +12566,7 @@
       </c>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="8" t="s">
         <v>54</v>
@@ -12578,7 +12576,7 @@
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="11" t="s">
         <v>55</v>
@@ -12588,7 +12586,7 @@
       </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="13" t="s">
         <v>59</v>
@@ -12598,7 +12596,7 @@
       </c>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="11" t="s">
         <v>61</v>
@@ -12606,7 +12604,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="11" t="s">
         <v>62</v>
@@ -12614,7 +12612,7 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="8" t="s">
         <v>12</v>
@@ -12622,7 +12620,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="11" t="s">
         <v>53</v>
@@ -12632,7 +12630,7 @@
       </c>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="11" t="s">
         <v>54</v>
@@ -12642,7 +12640,7 @@
       </c>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="11" t="s">
         <v>55</v>
@@ -12652,7 +12650,7 @@
       </c>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="13" t="s">
         <v>59</v>
@@ -12662,7 +12660,7 @@
       </c>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="11" t="s">
         <v>61</v>
@@ -12670,7 +12668,7 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="11" t="s">
         <v>62</v>
@@ -12678,7 +12676,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8" t="s">
         <v>336</v>
@@ -12686,7 +12684,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8" t="s">
         <v>337</v>
@@ -12694,7 +12692,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -12706,7 +12704,7 @@
       </c>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="s">
         <v>54</v>
@@ -12716,7 +12714,7 @@
       </c>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="11" t="s">
         <v>55</v>
@@ -12726,7 +12724,7 @@
       </c>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="13" t="s">
         <v>59</v>
@@ -12736,7 +12734,7 @@
       </c>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="11" t="s">
         <v>72</v>
@@ -12744,7 +12742,7 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
         <v>8</v>
@@ -12754,7 +12752,7 @@
       </c>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
         <v>50</v>
@@ -12764,7 +12762,7 @@
       </c>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>73</v>
       </c>
@@ -12776,7 +12774,7 @@
       </c>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="11" t="s">
         <v>54</v>
@@ -12786,7 +12784,7 @@
       </c>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="11" t="s">
         <v>55</v>
@@ -12796,7 +12794,7 @@
       </c>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="13" t="s">
         <v>59</v>
@@ -12806,7 +12804,7 @@
       </c>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="8" t="s">
         <v>74</v>
@@ -12814,7 +12812,7 @@
       <c r="C86" s="16"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="11" t="s">
         <v>53</v>
@@ -12824,7 +12822,7 @@
       </c>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="11" t="s">
         <v>54</v>
@@ -12834,7 +12832,7 @@
       </c>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="11" t="s">
         <v>55</v>
@@ -12844,7 +12842,7 @@
       </c>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="13" t="s">
         <v>59</v>
@@ -12854,7 +12852,7 @@
       </c>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="11" t="s">
         <v>61</v>
@@ -12862,7 +12860,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="11" t="s">
         <v>62</v>
@@ -12870,7 +12868,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="8" t="s">
         <v>336</v>
@@ -12878,7 +12876,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="8" t="s">
         <v>337</v>
@@ -12886,7 +12884,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>75</v>
       </c>
@@ -12896,7 +12894,7 @@
       <c r="C95" s="16"/>
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="8" t="s">
         <v>54</v>
@@ -12906,7 +12904,7 @@
       </c>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="11" t="s">
         <v>55</v>
@@ -12916,7 +12914,7 @@
       </c>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="13" t="s">
         <v>56</v>
@@ -12924,7 +12922,7 @@
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="13" t="s">
         <v>57</v>
@@ -12934,7 +12932,7 @@
       </c>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="13" t="s">
         <v>59</v>
@@ -12944,7 +12942,7 @@
       </c>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="11" t="s">
         <v>61</v>
@@ -12952,7 +12950,7 @@
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="11" t="s">
         <v>62</v>
@@ -12960,7 +12958,7 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="8" t="s">
         <v>74</v>
@@ -12968,7 +12966,7 @@
       <c r="C103" s="16"/>
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>76</v>
       </c>
@@ -12980,7 +12978,7 @@
       </c>
       <c r="D104" s="10"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="8" t="s">
         <v>54</v>
@@ -12988,7 +12986,7 @@
       <c r="C105" s="16"/>
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="11" t="s">
         <v>55</v>
@@ -12998,7 +12996,7 @@
       </c>
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="13" t="s">
         <v>56</v>
@@ -13006,7 +13004,7 @@
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="13" t="s">
         <v>57</v>
@@ -13016,7 +13014,7 @@
       </c>
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="13" t="s">
         <v>59</v>
@@ -13026,7 +13024,7 @@
       </c>
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="11" t="s">
         <v>61</v>
@@ -13034,7 +13032,7 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="11" t="s">
         <v>62</v>
@@ -13042,7 +13040,7 @@
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="8" t="s">
         <v>74</v>
@@ -13050,7 +13048,7 @@
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>77</v>
       </c>
@@ -13062,7 +13060,7 @@
       </c>
       <c r="D113" s="10"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="11" t="s">
         <v>54</v>
@@ -13072,7 +13070,7 @@
       </c>
       <c r="D114" s="10"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="11" t="s">
         <v>55</v>
@@ -13080,7 +13078,7 @@
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="13" t="s">
         <v>59</v>
@@ -13090,7 +13088,7 @@
       </c>
       <c r="D116" s="10"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="11" t="s">
         <v>61</v>
@@ -13098,7 +13096,7 @@
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="11" t="s">
         <v>62</v>
@@ -13106,7 +13104,7 @@
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="11" t="s">
         <v>74</v>
@@ -13114,7 +13112,7 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>78</v>
       </c>
@@ -13126,7 +13124,7 @@
       </c>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="11" t="s">
         <v>54</v>
@@ -13136,7 +13134,7 @@
       </c>
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="11" t="s">
         <v>55</v>
@@ -13144,7 +13142,7 @@
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="13" t="s">
         <v>59</v>
@@ -13154,7 +13152,7 @@
       </c>
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="11" t="s">
         <v>61</v>
@@ -13162,7 +13160,7 @@
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="11" t="s">
         <v>62</v>
@@ -13170,7 +13168,7 @@
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="11" t="s">
         <v>74</v>
@@ -13178,7 +13176,7 @@
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
     </row>
-    <row r="127" spans="1:4" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="66" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A127" s="74" t="s">
         <v>80</v>
       </c>
@@ -13190,7 +13188,7 @@
       </c>
       <c r="D127" s="64"/>
     </row>
-    <row r="128" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="65"/>
       <c r="B128" s="72" t="s">
         <v>54</v>
@@ -13200,7 +13198,7 @@
       </c>
       <c r="D128" s="64"/>
     </row>
-    <row r="129" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="65"/>
       <c r="B129" s="72" t="s">
         <v>55</v>
@@ -13210,7 +13208,7 @@
       </c>
       <c r="D129" s="64"/>
     </row>
-    <row r="130" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="65"/>
       <c r="B130" s="71" t="s">
         <v>59</v>
@@ -13220,7 +13218,7 @@
       </c>
       <c r="D130" s="64"/>
     </row>
-    <row r="131" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="65"/>
       <c r="B131" s="72" t="s">
         <v>61</v>
@@ -13228,7 +13226,7 @@
       <c r="C131" s="64"/>
       <c r="D131" s="64"/>
     </row>
-    <row r="132" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="65"/>
       <c r="B132" s="72" t="s">
         <v>62</v>
@@ -13236,7 +13234,7 @@
       <c r="C132" s="64"/>
       <c r="D132" s="64"/>
     </row>
-    <row r="133" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="65"/>
       <c r="B133" s="72" t="s">
         <v>74</v>
@@ -13244,7 +13242,7 @@
       <c r="C133" s="64"/>
       <c r="D133" s="64"/>
     </row>
-    <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>82</v>
       </c>
@@ -13256,7 +13254,7 @@
       </c>
       <c r="D134" s="10"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="11" t="s">
         <v>54</v>
@@ -13266,7 +13264,7 @@
       </c>
       <c r="D135" s="10"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="11" t="s">
         <v>55</v>
@@ -13276,7 +13274,7 @@
       </c>
       <c r="D136" s="10"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="13" t="s">
         <v>59</v>
@@ -13286,7 +13284,7 @@
       </c>
       <c r="D137" s="10"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="11" t="s">
         <v>61</v>
@@ -13294,7 +13292,7 @@
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="11" t="s">
         <v>62</v>
@@ -13302,7 +13300,7 @@
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="11" t="s">
         <v>74</v>
@@ -13310,7 +13308,7 @@
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
     </row>
-    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>84</v>
       </c>
@@ -13322,7 +13320,7 @@
       </c>
       <c r="D141" s="10"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="11" t="s">
         <v>74</v>
@@ -13330,7 +13328,7 @@
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
     </row>
-    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>85</v>
       </c>
@@ -13342,7 +13340,7 @@
       </c>
       <c r="D143" s="10"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="11" t="s">
         <v>74</v>
@@ -13350,7 +13348,7 @@
       <c r="C144" s="16"/>
       <c r="D144" s="10"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="11" t="s">
         <v>54</v>
@@ -13360,7 +13358,7 @@
       </c>
       <c r="D145" s="10"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="11" t="s">
         <v>74</v>
@@ -13368,7 +13366,7 @@
       <c r="C146" s="16"/>
       <c r="D146" s="10"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="11" t="s">
         <v>54</v>
@@ -13378,7 +13376,7 @@
       </c>
       <c r="D147" s="10"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="11" t="s">
         <v>74</v>
@@ -13386,7 +13384,7 @@
       <c r="C148" s="16"/>
       <c r="D148" s="10"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="11" t="s">
         <v>54</v>
@@ -13396,7 +13394,7 @@
       </c>
       <c r="D149" s="10"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="11" t="s">
         <v>74</v>
@@ -13404,7 +13402,7 @@
       <c r="C150" s="16"/>
       <c r="D150" s="10"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="11" t="s">
         <v>54</v>
@@ -13414,7 +13412,7 @@
       </c>
       <c r="D151" s="10"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="11" t="s">
         <v>74</v>
@@ -13422,7 +13420,7 @@
       <c r="C152" s="16"/>
       <c r="D152" s="10"/>
     </row>
-    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>89</v>
       </c>
@@ -13434,7 +13432,7 @@
       </c>
       <c r="D153" s="10"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="11" t="s">
         <v>54</v>
@@ -13442,7 +13440,7 @@
       <c r="C154" s="18"/>
       <c r="D154" s="10"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="11" t="s">
         <v>74</v>
@@ -13450,7 +13448,7 @@
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
     </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>90</v>
       </c>
@@ -13462,7 +13460,7 @@
       </c>
       <c r="D156" s="10"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="11" t="s">
         <v>74</v>
@@ -13470,7 +13468,7 @@
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
     </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>91</v>
       </c>
@@ -13482,7 +13480,7 @@
       </c>
       <c r="D158" s="10"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="11" t="s">
         <v>74</v>
@@ -13490,7 +13488,7 @@
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>93</v>
       </c>
@@ -13502,7 +13500,7 @@
       </c>
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="11" t="s">
         <v>74</v>
@@ -13510,7 +13508,7 @@
       <c r="C161" s="19"/>
       <c r="D161" s="10"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="11" t="s">
         <v>55</v>
@@ -13520,7 +13518,7 @@
       </c>
       <c r="D162" s="10"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="11" t="s">
         <v>74</v>
@@ -13528,7 +13526,7 @@
       <c r="C163" s="19"/>
       <c r="D163" s="10"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="11" t="s">
         <v>55</v>
@@ -13538,7 +13536,7 @@
       </c>
       <c r="D164" s="10"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="11" t="s">
         <v>74</v>
@@ -13546,7 +13544,7 @@
       <c r="C165" s="19"/>
       <c r="D165" s="10"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="11" t="s">
         <v>55</v>
@@ -13556,7 +13554,7 @@
       </c>
       <c r="D166" s="10"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="11" t="s">
         <v>74</v>
@@ -13564,7 +13562,7 @@
       <c r="C167" s="19"/>
       <c r="D167" s="10"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="11" t="s">
         <v>55</v>
@@ -13574,7 +13572,7 @@
       </c>
       <c r="D168" s="10"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="11" t="s">
         <v>74</v>
@@ -13582,7 +13580,7 @@
       <c r="C169" s="19"/>
       <c r="D169" s="10"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="11" t="s">
         <v>55</v>
@@ -13592,7 +13590,7 @@
       </c>
       <c r="D170" s="10"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="11" t="s">
         <v>74</v>
@@ -13600,7 +13598,7 @@
       <c r="C171" s="20"/>
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="11" t="s">
         <v>55</v>
@@ -13610,7 +13608,7 @@
       </c>
       <c r="D172" s="10"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="11" t="s">
         <v>74</v>
@@ -13618,7 +13616,7 @@
       <c r="C173" s="20"/>
       <c r="D173" s="10"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="11" t="s">
         <v>55</v>
@@ -13628,7 +13626,7 @@
       </c>
       <c r="D174" s="10"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="11" t="s">
         <v>74</v>
@@ -13636,7 +13634,7 @@
       <c r="C175" s="20"/>
       <c r="D175" s="10"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>96</v>
       </c>
@@ -13648,7 +13646,7 @@
       </c>
       <c r="D176" s="10"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="11" t="s">
         <v>74</v>
@@ -13656,7 +13654,7 @@
       <c r="C177" s="19"/>
       <c r="D177" s="10"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="11" t="s">
         <v>59</v>
@@ -13666,7 +13664,7 @@
       </c>
       <c r="D178" s="10"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="11" t="s">
         <v>74</v>
@@ -13674,7 +13672,7 @@
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="11" t="s">
         <v>59</v>
@@ -13684,7 +13682,7 @@
       </c>
       <c r="D180" s="10"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="11" t="s">
         <v>74</v>
@@ -13692,7 +13690,7 @@
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
     </row>
-    <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="11" t="s">
         <v>59</v>
@@ -13702,7 +13700,7 @@
       </c>
       <c r="D182" s="10"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="11" t="s">
         <v>74</v>
@@ -13710,7 +13708,7 @@
       <c r="C183" s="19"/>
       <c r="D183" s="10"/>
     </row>
-    <row r="184" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="11" t="s">
         <v>59</v>
@@ -13720,7 +13718,7 @@
       </c>
       <c r="D184" s="10"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="11" t="s">
         <v>74</v>
@@ -13728,7 +13726,7 @@
       <c r="C185" s="19"/>
       <c r="D185" s="10"/>
     </row>
-    <row r="186" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="11" t="s">
         <v>59</v>
@@ -13738,7 +13736,7 @@
       </c>
       <c r="D186" s="10"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="11" t="s">
         <v>74</v>
@@ -13746,7 +13744,7 @@
       <c r="C187" s="19"/>
       <c r="D187" s="10"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="11" t="s">
         <v>59</v>
@@ -13756,7 +13754,7 @@
       </c>
       <c r="D188" s="10"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="11" t="s">
         <v>74</v>
@@ -13764,7 +13762,7 @@
       <c r="C189" s="19"/>
       <c r="D189" s="10"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="11" t="s">
         <v>59</v>
@@ -13774,7 +13772,7 @@
       </c>
       <c r="D190" s="10"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="11" t="s">
         <v>74</v>
@@ -13782,7 +13780,7 @@
       <c r="C191" s="19"/>
       <c r="D191" s="10"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="11" t="s">
         <v>59</v>
@@ -13792,7 +13790,7 @@
       </c>
       <c r="D192" s="10"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="11" t="s">
         <v>74</v>
@@ -13800,7 +13798,7 @@
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
     </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>102</v>
       </c>
@@ -13810,7 +13808,7 @@
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="11" t="s">
         <v>74</v>
@@ -13818,7 +13816,7 @@
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
     </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>103</v>
       </c>
@@ -13830,7 +13828,7 @@
       </c>
       <c r="D196" s="10"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="11" t="s">
         <v>74</v>
@@ -13838,7 +13836,7 @@
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8" t="s">
         <v>57</v>
@@ -13848,7 +13846,7 @@
       </c>
       <c r="D198" s="10"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="11" t="s">
         <v>74</v>
@@ -13856,7 +13854,7 @@
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="8" t="s">
         <v>57</v>
@@ -13866,7 +13864,7 @@
       </c>
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="11" t="s">
         <v>74</v>
@@ -13874,7 +13872,7 @@
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8" t="s">
         <v>57</v>
@@ -13884,7 +13882,7 @@
       </c>
       <c r="D202" s="10"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="11" t="s">
         <v>74</v>
@@ -13892,7 +13890,7 @@
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8" t="s">
         <v>57</v>
@@ -13902,7 +13900,7 @@
       </c>
       <c r="D204" s="10"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="11" t="s">
         <v>74</v>
@@ -13910,7 +13908,7 @@
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="8" t="s">
         <v>57</v>
@@ -13920,7 +13918,7 @@
       </c>
       <c r="D206" s="10"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="11" t="s">
         <v>74</v>
@@ -13928,7 +13926,7 @@
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="8" t="s">
         <v>57</v>
@@ -13938,7 +13936,7 @@
       </c>
       <c r="D208" s="10"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="11" t="s">
         <v>74</v>
@@ -13946,7 +13944,7 @@
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="8" t="s">
         <v>57</v>
@@ -13956,7 +13954,7 @@
       </c>
       <c r="D210" s="10"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="11" t="s">
         <v>74</v>
